--- a/PLanning.xlsx
+++ b/PLanning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mulle\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0AD461-ABBB-47D8-A448-1E87E7ED5C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB9A3AC-E648-4A66-9FA3-8E5E82145045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2955" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{D1738D97-7414-434D-AD7F-A7D2EE6C0FA0}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,22 +496,22 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
